--- a/data/long_dif/P23_4-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_4-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,76%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,56; 25,38</t>
+          <t>11,71; 27,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 21,3</t>
+          <t>8,06; 24,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 28,1</t>
+          <t>0,0; 13,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 13,89</t>
+          <t>4,04; 26,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 25,08</t>
+          <t>12,23; 26,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 15,26</t>
+          <t>3,85; 14,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,4; 22,32</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 19,12</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13,97; 25,34</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 17,19</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 15,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 18,0</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,83%</t>
+          <t>80,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>71,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>73,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>80,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64,9%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>67,5%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>80,58%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>69,57%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>64,09; 81,92</t>
+          <t>57,92; 79,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,97; 89,5</t>
+          <t>70,92; 88,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,81; 81,16</t>
+          <t>63,08; 87,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72,76; 86,44</t>
+          <t>55,43; 84,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>66,43; 78,86</t>
+          <t>64,46; 81,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>76,12; 86,39</t>
+          <t>72,69; 86,61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54,98; 74,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53,01; 79,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>64,53; 78,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>74,67; 85,67</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>63,0; 78,32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59,85; 79,29</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23,83%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,43; 17,53</t>
+          <t>5,08; 24,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 9,79</t>
+          <t>1,64; 10,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 12,58</t>
+          <t>9,54; 31,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 18,36</t>
+          <t>7,62; 31,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,57</t>
+          <t>3,63; 14,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,07</t>
+          <t>7,29; 17,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14,1; 31,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 37,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 17,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 12,37</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 27,59</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13,1; 30,0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 36,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 14,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,19; 32,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,76; 21,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,13; 30,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 15,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,79%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,32%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16,89%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12,12%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,8%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>55,74; 80,04</t>
+          <t>11,55; 40,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>54,87; 80,23</t>
+          <t>5,43; 14,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>50,65; 68,0</t>
+          <t>2,99; 12,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>63,36; 77,36</t>
+          <t>5,48; 26,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,02; 72,39</t>
+          <t>15,67; 30,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,88; 76,66</t>
+          <t>10,83; 21,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 18,67</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,71; 25,88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 32,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 15,86</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 13,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 22,8</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>69,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>77,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>71,2%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72,47%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56,91%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65,77%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70,37%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>70,87%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>67,34%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,03; 17,5</t>
+          <t>53,69; 80,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,33; 37,56</t>
+          <t>52,66; 79,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,8; 25,27</t>
+          <t>51,72; 81,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 19,63</t>
+          <t>60,4; 88,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,21; 18,04</t>
+          <t>51,48; 68,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,88; 28,52</t>
+          <t>64,29; 78,17</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>63,65; 80,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45,92; 67,56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>56,18; 72,49</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>61,67; 76,49</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>61,03; 78,42</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>57,47; 77,26</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,21%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12,68%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>17,51%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,18; 29,03</t>
+          <t>4,24; 15,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,64; 21,83</t>
+          <t>11,75; 40,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,84; 26,11</t>
+          <t>12,61; 41,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,35</t>
+          <t>3,56; 23,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,13; 25,36</t>
+          <t>11,41; 24,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 15,53</t>
+          <t>8,67; 18,69</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9,52; 22,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,93; 36,76</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 16,99</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 28,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 31,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11,4; 26,07</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>54,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,35%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>44,89; 63,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>59,16; 74,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>59,3; 72,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,61; 72,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,49; 66,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>62,25; 71,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>9,25%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12,29%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,03; 35,11</t>
+          <t>14,78; 27,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,21; 25,19</t>
+          <t>10,54; 22,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,79; 18,8</t>
+          <t>16,69; 36,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,65</t>
+          <t>13,34; 28,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,08; 24,39</t>
+          <t>15,54; 26,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,86; 24,99</t>
+          <t>6,32; 13,1</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14,7; 25,2</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,18; 24,22</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 24,88</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 15,58</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17,11; 27,26</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13,25; 23,68</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>65,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>66,98%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>66,3%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>63,06%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>60,73%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>67,23%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>61,23%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>57,17%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,75; 26,17</t>
+          <t>44,95; 63,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,99; 29,88</t>
+          <t>58,92; 74,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,46; 27,49</t>
+          <t>45,81; 64,4</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,12; 25,26</t>
+          <t>41,61; 62,11</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>16,7; 24,96</t>
+          <t>58,66; 71,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,71; 25,59</t>
+          <t>61,35; 71,97</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>60,55; 72,88</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52,96; 71,01</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>54,2; 65,8</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>62,03; 71,51</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>55,43; 66,29</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>49,77; 64,16</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>27,94%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>55,38%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>58,74%</t>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18,68%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>49,96; 65,36</t>
+          <t>16,68; 38,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>54,05; 67,79</t>
+          <t>11,35; 26,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46,09; 59,63</t>
+          <t>14,64; 26,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>50,61; 61,87</t>
+          <t>18,58; 39,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>50,02; 60,36</t>
+          <t>10,06; 19,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>54,07; 63,43</t>
+          <t>19,18; 28,84</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 19,08</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>13,62; 28,96</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>14,43; 25,88</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>16,89; 25,41</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 21,2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 31,09</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,73; 30,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>11,8; 22,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,51; 32,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,89; 28,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,56; 29,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,88; 24,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>22,04%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>20,29%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>15,97; 29,04</t>
+          <t>14,17; 26,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>12,45; 23,29</t>
+          <t>16,8; 30,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,99; 17,75</t>
+          <t>12,75; 24,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>13,24; 24,32</t>
+          <t>10,46; 25,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,71; 21,29</t>
+          <t>16,51; 27,81</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,02; 21,83</t>
+          <t>16,12; 25,25</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 27,99</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 28,07</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 25,07</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 26,07</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 24,15</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 25,21</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>63,92%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>70,78%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>67,23%</t>
+          <t>53,7%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>56,25%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>54,07%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>64,38%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>55,99%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>58,66%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>62,58%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>55,87; 71,32</t>
+          <t>50,79; 65,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>63,14; 76,06</t>
+          <t>52,98; 67,56</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>62,99; 77,67</t>
+          <t>41,92; 60,93</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>55,43; 69,0</t>
+          <t>48,83; 70,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>61,02; 72,04</t>
+          <t>46,54; 60,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>61,01; 70,69</t>
+          <t>50,11; 61,78</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>47,34; 60,33</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>55,03; 72,84</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>50,51; 60,69</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>53,8; 62,68</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>46,73; 58,69</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 68,79</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>23,48%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>26,28%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>18,44%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>9,2; 20,24</t>
+          <t>15,45; 30,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>8,62; 17,63</t>
+          <t>12,37; 22,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>11,98; 24,52</t>
+          <t>20,81; 41,8</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,92; 26,57</t>
+          <t>12,94; 34,15</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>12,26; 21,71</t>
+          <t>18,82; 30,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>12,92; 20,22</t>
+          <t>18,44; 28,38</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 30,07</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 23,12</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>19,59; 29,23</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>16,95; 24,07</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>21,49; 33,83</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 26,37</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>13,07; 34,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>14,03; 28,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,41; 27,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>13,61; 27,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>70,33%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>66,5%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>17,97%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>17,06%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>17,81%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>22,21%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>50,3; 73,04</t>
+          <t>16,43; 29,79</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>51,64; 69,34</t>
+          <t>12,7; 24,08</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>60,64; 77,59</t>
+          <t>7,21; 16,99</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>62,98; 81,85</t>
+          <t>19,43; 38,93</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>59,05; 73,06</t>
+          <t>7,06; 17,3</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>61,78; 74,76</t>
+          <t>13,23; 23,4</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>16,16; 31,79</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>10,32; 24,33</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 22,16</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 21,71</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 22,54</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 28,07</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>63,26%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>69,46%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>67,62%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>14,28%</t>
+          <t>70,25%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>62,54%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>58,4%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>56,96%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>66,65%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>65,97%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>62,93%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>51,62%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>11,43; 25,39</t>
+          <t>56,14; 71,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>12,35; 25,9</t>
+          <t>62,61; 75,47</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>7,35; 18,8</t>
+          <t>58,95; 75,91</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>9,67; 29,96</t>
+          <t>35,39; 57,38</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,67</t>
+          <t>62,77; 77,74</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>13,04; 25,81</t>
+          <t>55,54; 68,95</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>49,4; 67,3</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>47,9; 65,76</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>61,04; 71,72</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>61,41; 70,64</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>56,38; 68,98</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>45,03; 58,61</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,63%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>16,29%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>26,17%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>17,37; 24,49</t>
+          <t>9,97; 21,02</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,05</t>
+          <t>9,11; 17,58</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>16,75; 22,11</t>
+          <t>13,94; 30,59</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,2</t>
+          <t>17,25; 36,14</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>17,69; 22,21</t>
+          <t>12,5; 25,71</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>12,92; 16,09</t>
+          <t>14,43; 25,02</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>12,69; 26,23</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>19,19; 35,29</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 20,85</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>12,83; 19,83</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>15,14; 26,26</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>19,67; 32,89</t>
         </is>
       </c>
     </row>
@@ -2064,37 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>58,64; 66,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>64,06; 71,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>61,92; 68,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>65,24; 70,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>61,33; 66,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>65,76; 70,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>18,3%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,81</t>
+          <t>12,8; 31,05</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,23</t>
+          <t>14,73; 29,65</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,22</t>
+          <t>7,25; 27,69</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>16,47; 21,75</t>
+          <t>7,07; 27,77</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>14,29; 18,31</t>
+          <t>11,91; 26,39</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>15,23; 19,23</t>
+          <t>5,1; 14,02</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 21,08</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>8,39; 34,9</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>13,81; 25,49</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 18,04</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 19,97</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 28,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>60,81%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>60,43%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>69,45%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>72,94%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>69,58%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>75,38%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>75,53%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>71,91%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>65,84%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>68,94%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>72,93%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>72,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>50,94; 71,35</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>51,36; 69,53</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>57,15; 79,47</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>60,19; 83,26</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>60,42; 77,35</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>67,05; 82,43</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>65,61; 83,17</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>56,62; 84,11</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>59,22; 71,83</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>63,06; 74,61</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>65,15; 79,34</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>62,08; 79,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>11,89%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>11,96; 26,73</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>12,18; 25,46</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>9,23; 26,63</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 21,97</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 19,04</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 24,89</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 21,03</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 19,73</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>11,22; 19,48</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 23,03</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>9,88; 19,99</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 17,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>20,43%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,09%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 24,35</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 19,34</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>11,13; 17,34</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 21,86</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 22,35</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 14,89</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 19,78</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 20,69</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 22,11</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>13,32; 16,66</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>13,66; 17,95</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>14,78; 20,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>62,59%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>67,89%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>64,31%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>62,85%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>68,44%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>63,68%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>63,86%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>68,17%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>64,88%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>63,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>57,95; 66,23</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>64,05; 71,42</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>59,34; 68,84</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>57,56; 68,12</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>61,91; 68,05</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>65,45; 71,1</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>61,98; 68,34</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>58,71; 67,78</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>60,78; 66,37</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>65,87; 70,27</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>61,96; 67,58</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>59,87; 66,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>21,8%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>19,46%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>15,79%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>18,47%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>19,77%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>19,63%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>19,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>14,21; 20,32</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 19,71</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>18,26; 26,84</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 23,66</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 18,18</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>16,17; 21,07</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 20,03</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>16,48; 23,67</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>14,6; 18,42</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>15,19; 19,25</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>17,44; 22,56</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>16,99; 22,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P23_4-Edad-long_dif.xlsx
+++ b/data/long_dif/P23_4-Edad-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1720,7 +1720,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1988,7 +1988,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2120,7 +2120,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2388,7 +2388,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2520,7 +2520,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2788,7 +2788,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2920,7 +2920,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -3188,7 +3188,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -3320,7 +3320,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
